--- a/09-07-25 to 09-13-25 Madison Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Madison Schedule.xlsx
@@ -1463,21 +1463,9 @@
       <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>

--- a/09-07-25 to 09-13-25 Madison Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Madison Schedule.xlsx
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 11:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>

--- a/09-07-25 to 09-13-25 Madison Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,13 +2247,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2288,9 +2287,22 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store,
+Ace Side</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2371,11 +2383,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2416,7 +2424,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2473,7 +2481,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION WILD GOOSE, JUNEAU</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2528,7 +2536,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>W5948 WI-33</t>
+          <t>DHILLON'S STATION WILD GOOSE, JUNEAU</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2563,7 +2571,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/9TPQcR9AP9Sc5xxUA</t>
+          <t>W5948 WI-33</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2620,7 +2628,11 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/9TPQcR9AP9Sc5xxUA</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2665,7 +2677,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2674,21 +2686,9 @@
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2755,17 +2755,17 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2806,12 +2806,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2860,9 +2860,21 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -3332,6 +3344,122 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Office - Car/Office maintenance</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-07-25 to 09-13-25 Madison Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Madison Schedule.xlsx
@@ -602,7 +602,11 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Silver van oil change this day</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1369,7 +1373,7 @@
       <c r="S19" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Gray Van</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1661,7 +1665,7 @@
       <c r="S23" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van,
+Gray Van,
 Supv Rx</t>
         </is>
       </c>

--- a/09-07-25 to 09-13-25 Madison Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Madison Schedule.xlsx
@@ -1415,10 +1415,15 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>@ Store
+After c-store</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1478,7 +1483,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1545,15 +1550,10 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1696,13 +1696,13 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Optima</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1777,15 +1777,10 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>@ Store
-After c-store</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -1858,13 +1853,13 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>@ Store
-After c-store</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2497,21 +2492,9 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Back w/ Groc crew</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
@@ -2588,7 +2571,11 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -2649,7 +2636,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2704,7 +2691,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2783,7 +2770,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
+          <t>1620 W US HWY 14</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2834,7 +2821,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1620 W US HWY 14</t>
+          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2890,7 +2877,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
+          <t>SET UP BY THE GAME ROOM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2938,7 +2925,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SET UP BY THE GAME ROOM</t>
+          <t>5:15 am meet for Sarah &amp; Lori at Hwy N PnR</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2971,11 +2958,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5:15 am meet for Sarah &amp; Lori at Hwy N PnR</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -3005,9 +2988,22 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -3038,18 +3034,17 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>@ Store,
-Equip</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -3082,12 +3077,12 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3125,17 +3120,17 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -3162,21 +3157,9 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>

--- a/09-07-25 to 09-13-25 Madison Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Madison Schedule.xlsx
@@ -1813,12 +1813,13 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1894,13 +1895,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2172,16 +2172,8 @@
           <t>14)</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
@@ -2735,7 +2727,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">

--- a/09-07-25 to 09-13-25 Madison Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Madison Schedule.xlsx
@@ -1372,7 +1372,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Gray Van</t>
         </is>
       </c>
@@ -1659,14 +1659,13 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van,
-Supv Rx</t>
+Camry 3</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1737,12 +1736,14 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Camry 3,
+Supv Rx</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1813,13 +1814,12 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1895,12 +1895,13 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1958,7 +1959,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2034,7 +2035,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2110,7 +2111,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2172,8 +2173,16 @@
           <t>14)</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>

--- a/09-07-25 to 09-13-25 Madison Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Madison Schedule.xlsx
@@ -958,11 +958,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>*Eva will ride back w/ rest of Groc store crew</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1008,9 +1004,23 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima,
+Equip</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1073,21 +1083,15 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima,
-Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
@@ -1151,12 +1155,12 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1241,15 +1245,20 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1329,18 +1338,18 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>@ Store
+After c-store</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1410,20 +1419,15 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>@ Store
-After c-store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1478,12 +1482,12 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1545,12 +1549,12 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1622,15 +1626,20 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
@@ -1690,20 +1699,15 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1773,15 +1777,20 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -1847,22 +1856,9 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
@@ -1992,7 +1988,11 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -2071,7 +2071,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2147,7 +2147,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SULLIVAN'S SAVANNA STATION #276</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2210,7 +2210,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SULLIVAN'S SAVANNA STATION #276</t>
+          <t>1230 CHICAGO AVE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1230 CHICAGO AVE</t>
+          <t>https://goo.gl/maps/jvzQV9VdYyX6QkhM8</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2314,7 +2314,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jvzQV9VdYyX6QkhM8</t>
+          <t xml:space="preserve">*IL Meet is 4:30 am at IL office </t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2351,11 +2351,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:30 am at IL office</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2393,9 +2389,23 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Driver,
+Prius, 
+Equip</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
@@ -2436,23 +2446,9 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Driver,
-Prius, 
-Equip</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
@@ -2537,7 +2533,11 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -2574,7 +2574,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2637,7 +2637,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2692,7 +2692,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
+          <t>1620 W US HWY 14</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2771,7 +2771,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1620 W US HWY 14</t>
+          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2822,7 +2822,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
+          <t>SET UP BY THE GAME ROOM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2878,7 +2878,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SET UP BY THE GAME ROOM</t>
+          <t>5:15 am meet for Sarah &amp; Lori at Hwy N PnR</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2924,11 +2924,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>5:15 am meet for Sarah &amp; Lori at Hwy N PnR</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -2958,9 +2954,22 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2991,18 +3000,17 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>@ Store,
-Equip</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -3035,12 +3043,12 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3078,17 +3086,17 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -3119,21 +3127,9 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>

--- a/09-07-25 to 09-13-25 Madison Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Madison Schedule.xlsx
@@ -970,7 +970,11 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>*Ashley to drop off the Optima at Meineke upon arrival</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1026,21 +1030,9 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -1112,15 +1104,19 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -1179,20 +1175,15 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1279,15 +1270,20 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1365,8 +1361,16 @@
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
@@ -1505,11 +1509,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
@@ -1579,7 +1579,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1656,7 +1656,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>LIQUOR TOWN, FITCHBURG</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1728,7 +1728,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>5276 WILLIAMSBURG WAY</t>
+          <t>LIQUOR TOWN, FITCHBURG</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1811,7 +1811,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/oyU61mx3PCtiTGjS6</t>
+          <t>5276 WILLIAMSBURG WAY</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1879,7 +1879,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:45 am at IL office</t>
+          <t>https://maps.app.goo.gl/oyU61mx3PCtiTGjS6</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1945,7 +1945,11 @@
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:45 am at IL office</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
@@ -2011,22 +2015,9 @@
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2094,15 +2085,20 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van, Equip</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2158,12 +2154,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2221,20 +2217,15 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2279,9 +2270,22 @@
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2363,11 +2367,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2418,7 +2418,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2461,7 +2461,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>MCFARLAND LIQUOR</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2504,7 +2504,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>4716 FARWELL ST</t>
+          <t>MCFARLAND LIQUOR</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2547,7 +2547,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/hC4uX6K5VKV4oqLo9</t>
+          <t>4716 FARWELL ST</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2598,7 +2598,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:45 am at IL office</t>
+          <t>https://maps.app.goo.gl/hC4uX6K5VKV4oqLo9</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2659,7 +2659,11 @@
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:45 am at IL office</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -2713,21 +2717,9 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2782,15 +2774,19 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -2833,20 +2829,15 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -2889,12 +2880,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2931,9 +2922,22 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">

--- a/09-07-25 to 09-13-25 Madison Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Madison Schedule.xlsx
@@ -1037,7 +1037,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>RESET-</t>
+          <t>RESET-REMAPPED</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>

--- a/09-07-25 to 09-13-25 Madison Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Madison Schedule.xlsx
@@ -1307,11 +1307,7 @@
           <t>Ashley P</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Ace Side</t>
-        </is>
-      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1397,7 +1393,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1472,7 +1468,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1531,14 +1527,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Ace Side</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1608,14 +1600,10 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Ace Side</t>
-        </is>
-      </c>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1685,10 +1673,14 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Optima</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1758,13 +1750,12 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Red Camry,
-Ace Side</t>
+          <t>Camry 3</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1837,17 +1828,8 @@
           <t>11)</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Optima,
-Ace Supv</t>
-        </is>
-      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1906,16 +1888,8 @@
           <t>12)</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Camry 3</t>
-        </is>
-      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1968,21 +1942,9 @@
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2035,22 +1997,9 @@
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>@ Store,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2116,22 +2065,9 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>@ Store,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2180,21 +2116,9 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2231,21 +2155,9 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2291,22 +2203,9 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>

--- a/09-07-25 to 09-13-25 Madison Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Madison Schedule.xlsx
@@ -792,7 +792,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #295 +ACE, WINNEBAGO</t>
+          <t>SULLIVAN'S FOODS #295, WINNEBAGO</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -986,7 +986,12 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>GROCERY SIDE ONLY - 
+NO ACE COUNT</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -1042,21 +1047,9 @@
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1124,15 +1117,19 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1204,7 +1201,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1299,7 +1296,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1388,7 +1385,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1463,7 +1460,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1522,7 +1519,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1595,7 +1592,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1668,7 +1665,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -1745,7 +1742,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -1823,11 +1820,7 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -1883,11 +1876,7 @@
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -1943,7 +1932,11 @@
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1998,7 +1991,11 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -2066,7 +2063,11 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>DHILLON'S STATION WILD GOOSE, JUNEAU</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2117,7 +2118,11 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>W5948 WI-33</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2156,7 +2161,11 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/9TPQcR9AP9Sc5xxUA</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2242,9 +2251,21 @@
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2277,9 +2298,21 @@
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2330,13 +2363,21 @@
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2374,11 +2415,7 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2417,11 +2454,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>DHILLON'S STATION WILD GOOSE, JUNEAU</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2456,11 +2489,7 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>W5948 WI-33</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2519,11 +2548,7 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/9TPQcR9AP9Sc5xxUA</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2636,21 +2661,9 @@
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2691,21 +2704,9 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2742,21 +2743,9 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
